--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829471.6548561585</v>
+        <v>-832171.5469773817</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13778539.18072491</v>
+        <v>13778539.1807249</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.8612901344948</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>121.2344736485108</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>135.3593311678961</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>32.48865836873797</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>236.9454272268204</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>138.1862251413664</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.01515401739519</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.2655172726558</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.898144774127356</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>109.4775732512737</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>19.09995003573649</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>114.1183053136264</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>17.48314223074837</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>35.63623515385274</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>140.939995452456</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>134.5665975534139</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.1911789297516</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>166.3208822291519</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>94.05355358057939</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261729</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261729</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.291972625547</v>
+        <v>680.4368926451166</v>
       </c>
       <c r="C2" t="n">
-        <v>1623.291972625547</v>
+        <v>680.4368926451166</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.026274018797</v>
+        <v>680.4368926451166</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>680.4368926451166</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>269.450987855509</v>
       </c>
       <c r="G2" t="n">
-        <v>51.7998553228197</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.7998553228197</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073758</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178236</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>1410.779085423008</v>
+        <v>1096.123594092266</v>
       </c>
       <c r="M2" t="n">
-        <v>1706.84965198061</v>
+        <v>1392.194160649869</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216195</v>
+        <v>1697.669266885454</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>1972.785486202088</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140985</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016314</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016314</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.55590205433</v>
+        <v>1793.271146240432</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.55590205433</v>
+        <v>1440.502490970318</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.55590205433</v>
+        <v>1067.036732709238</v>
       </c>
       <c r="Y2" t="n">
-        <v>1863.55590205433</v>
+        <v>1067.036732709238</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093827</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995042</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626818</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>669.9499323155121</v>
+        <v>651.1289493493045</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928757</v>
+        <v>915.0684808447924</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362089</v>
+        <v>1200.402351278125</v>
       </c>
       <c r="O3" t="n">
         <v>1829.130999113547</v>
@@ -4428,7 +4428,7 @@
         <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357.4626353900156</v>
+        <v>253.5528648858155</v>
       </c>
       <c r="C4" t="n">
-        <v>188.5264524621087</v>
+        <v>84.61668195790858</v>
       </c>
       <c r="D4" t="n">
-        <v>188.5264524621087</v>
+        <v>84.61668195790858</v>
       </c>
       <c r="E4" t="n">
-        <v>51.7998553228197</v>
+        <v>84.61668195790858</v>
       </c>
       <c r="F4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.20230936112</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.20230936112</v>
+        <v>797.654523128663</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.517821155233</v>
+        <v>542.9700349227761</v>
       </c>
       <c r="W4" t="n">
-        <v>767.1006511182727</v>
+        <v>253.5528648858155</v>
       </c>
       <c r="X4" t="n">
-        <v>539.1111002202554</v>
+        <v>253.5528648858155</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.1111002202554</v>
+        <v>253.5528648858155</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1329.746324659711</v>
+        <v>1082.72853019293</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.746324659711</v>
+        <v>713.766013252518</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.746324659711</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104773</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135505</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
@@ -4583,13 +4583,13 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
         <v>2465.81558556073</v>
@@ -4607,10 +4607,10 @@
         <v>1859.467702232863</v>
       </c>
       <c r="X5" t="n">
-        <v>1719.885656635523</v>
+        <v>1859.467702232863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1329.746324659711</v>
+        <v>1469.328370257051</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
         <v>598.8031573431335</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.545230842794</v>
+        <v>645.3670713825771</v>
       </c>
       <c r="C7" t="n">
-        <v>517.545230842794</v>
+        <v>645.3670713825771</v>
       </c>
       <c r="D7" t="n">
-        <v>517.545230842794</v>
+        <v>495.2504319702414</v>
       </c>
       <c r="E7" t="n">
-        <v>517.545230842794</v>
+        <v>347.3373383878483</v>
       </c>
       <c r="F7" t="n">
-        <v>370.6552833448836</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.744530921302</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V7" t="n">
-        <v>1255.744530921302</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="W7" t="n">
-        <v>966.3273608843415</v>
+        <v>769.8776948903103</v>
       </c>
       <c r="X7" t="n">
-        <v>738.3378099863241</v>
+        <v>645.3670713825771</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.545230842794</v>
+        <v>645.3670713825771</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1183.19935143006</v>
+        <v>1247.430118852707</v>
       </c>
       <c r="C8" t="n">
-        <v>1183.19935143006</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="D8" t="n">
-        <v>1183.19935143006</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="E8" t="n">
-        <v>1183.19935143006</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F8" t="n">
-        <v>772.2134466404525</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>356.5316048405845</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70707226638268</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560729</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019557</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.170226019557</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.107338675986</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.338683405872</v>
+        <v>2024.16929089264</v>
       </c>
       <c r="X8" t="n">
-        <v>1573.338683405872</v>
+        <v>2024.16929089264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1183.19935143006</v>
+        <v>1634.029958916829</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.285257822616</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258286</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421431</v>
+        <v>763.7295585398688</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344685</v>
+        <v>1130.035448032194</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1520.445009357936</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>1855.373690073468</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.8288664011729</v>
+        <v>938.1822596648672</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8926834732661</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7760440609304</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E10" t="n">
-        <v>219.7760440609304</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153877</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.712654685568</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V10" t="n">
-        <v>1277.028166479681</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="W10" t="n">
-        <v>987.6109964427204</v>
+        <v>938.1822596648672</v>
       </c>
       <c r="X10" t="n">
-        <v>759.6214455447031</v>
+        <v>938.1822596648672</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.8288664011729</v>
+        <v>938.1822596648672</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762944</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6105350483875</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806534</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>229.7425191625314</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>229.7425191625314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>961.2628027535235</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.927936255316</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
         <v>484.8112968429803</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1809.460189369951</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1554.775701164064</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1265.358531127103</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1037.368980229086</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>816.5764010855557</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908939</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6373,7 +6373,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6552,7 +6552,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6689,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6838,13 +6838,13 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,61 +6926,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7075,13 +7075,13 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>401.1635972595893</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>65.99703727571909</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.1946181815976</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,19 +8058,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>245.4541431073169</v>
       </c>
       <c r="M3" t="n">
-        <v>374.8512253714723</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740405</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>166.1321840381064</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144498</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.8725515289858</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>291.0532650465333</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.7474323947666</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100.4448631891572</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012339</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>199.9223080965399</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>111.197647871372</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>30.95754073885493</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.51847645928558</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>119.8635921600922</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>54.56191943763297</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.014743972193151e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.3549837539</v>
+        <v>186177.354983754</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26332,7 +26332,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.867745751</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77576.42687802261</v>
+        <v>77576.42687802232</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695075</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695054</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
+        <v>14278.33979478857</v>
+      </c>
+      <c r="M4" t="n">
         <v>14278.33979478851</v>
       </c>
-      <c r="M4" t="n">
-        <v>14278.33979478858</v>
-      </c>
       <c r="N4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478853</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>14278.33979478852</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14278.33979478851</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-920427.0826666569</v>
+        <v>-920787.1656823752</v>
       </c>
       <c r="C6" t="n">
-        <v>-169525.7171639731</v>
+        <v>-169525.717163972</v>
       </c>
       <c r="D6" t="n">
-        <v>3238.642625920489</v>
+        <v>3238.642625920402</v>
       </c>
       <c r="E6" t="n">
-        <v>-386333.5631866014</v>
+        <v>-386368.301112037</v>
       </c>
       <c r="F6" t="n">
-        <v>114555.3045591496</v>
+        <v>114520.5666337139</v>
       </c>
       <c r="G6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="H6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337139</v>
       </c>
       <c r="I6" t="n">
-        <v>114555.3045591496</v>
+        <v>114520.5666337139</v>
       </c>
       <c r="J6" t="n">
-        <v>-54858.71226689842</v>
+        <v>-54893.4501923342</v>
       </c>
       <c r="K6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="L6" t="n">
-        <v>88916.31307034244</v>
+        <v>88916.31307034237</v>
       </c>
       <c r="M6" t="n">
-        <v>-22540.42584026109</v>
+        <v>-22540.42584026112</v>
       </c>
       <c r="N6" t="n">
-        <v>108344.0310639741</v>
+        <v>108344.0310639742</v>
       </c>
       <c r="O6" t="n">
-        <v>108344.0310639741</v>
+        <v>108344.0310639742</v>
       </c>
       <c r="P6" t="n">
         <v>108344.0310639742</v>
@@ -26722,10 +26722,10 @@
         <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498446</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>525.210096564402</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>647.4981915352464</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>525.2100965644022</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>647.4981915352462</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.490506261287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>11.07463147867304</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.48752646503604</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>117.7376143938626</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>231.5448755371026</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102.2812728333343</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>102.4441381163813</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>63.9374206735524</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>239.7633954661393</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>148.1468710628913</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>172.1082939060792</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,28 +31671,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520769</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.574717687321</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>641.1866085910956</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692773</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269026</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223259</v>
+        <v>268.3246405980457</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932396</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643751</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806367</v>
+        <v>457.1620958879543</v>
       </c>
       <c r="M3" t="n">
-        <v>641.456812740651</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812708</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689364</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527184</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171349</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.546958993144</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>466.447284155596</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545276</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656112</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
